--- a/2bRAD_oligos_order.xlsx
+++ b/2bRAD_oligos_order.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="17020" yWindow="1220" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>TruSeq_Un1</t>
   </si>
@@ -1027,6 +1027,18 @@
   </si>
   <si>
     <t>100nm</t>
+  </si>
+  <si>
+    <t>CCTA?</t>
+  </si>
+  <si>
+    <t>ATGG?</t>
+  </si>
+  <si>
+    <t>GAGT?</t>
+  </si>
+  <si>
+    <t>ACTC?</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1675,7 +1687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1703,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1772,8 +1784,11 @@
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,8 +1857,11 @@
       <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1940,8 +1958,11 @@
       <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1955,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1997,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -2010,8 +2031,11 @@
       <c r="D42" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
